--- a/Documents/Project Vote.xlsx
+++ b/Documents/Project Vote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Programming Apps\Codes\CS4700 Project\Final Project\CS4700_FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7B8040-69C2-4698-8ADC-34A04C757D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE032E-347F-4CDF-ACC2-B74975214391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F61033F-757E-4A1E-93A9-545B12D686FA}"/>
+    <workbookView xWindow="-19320" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F61033F-757E-4A1E-93A9-545B12D686FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Topic</t>
   </si>
@@ -195,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +240,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +562,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,21 +608,37 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="0">COUNTA(B3:G3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,13 +688,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" ref="H11" si="2">COUNTA(B11:G11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,27 +736,45 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H15">
         <f t="shared" ref="H15:H16" si="4">COUNTA(B15:G15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,9 +910,12 @@
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
